--- a/results/model3/model3_df_results.xlsx
+++ b/results/model3/model3_df_results.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="14">
     <fill>
       <patternFill/>
     </fill>
@@ -49,22 +49,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E9F7E5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0078C679"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0063BC6E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00309950"/>
+        <fgColor rgb="00BAE3B3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0075C477"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002C944C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00248C46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000441B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00004C1E"/>
       </patternFill>
     </fill>
     <fill>
@@ -74,42 +84,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000A7633"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000441B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000D7836"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00005E26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00006428"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000682A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00005B25"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00006227"/>
+        <fgColor rgb="000C7735"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0005712F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00005924"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00004E1F"/>
       </patternFill>
     </fill>
   </fills>
@@ -132,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -164,19 +154,13 @@
     <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -517,13 +501,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-17.5851</v>
+        <v>-30.0126</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>1.1758</v>
+        <v>1.5189</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>3.5914</v>
+        <v>4.685</v>
       </c>
     </row>
     <row r="3">
@@ -534,13 +518,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-6.8363</v>
+        <v>-11.4739</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.1623</v>
+        <v>1.4664</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>2.7335</v>
+        <v>3.4766</v>
       </c>
     </row>
     <row r="4">
@@ -551,13 +535,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-3.0135</v>
+        <v>-5.6612</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>1.1107</v>
+        <v>1.4309</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>2.6366</v>
+        <v>3.437</v>
       </c>
     </row>
     <row r="5">
@@ -568,13 +552,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-1.5372</v>
+        <v>-3.0416</v>
       </c>
       <c r="D5" s="8" t="n">
-        <v>1.1036</v>
+        <v>1.3929</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>2.6592</v>
+        <v>3.3217</v>
       </c>
     </row>
     <row r="6">
@@ -585,13 +569,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.9547</v>
+        <v>-2.2067</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>1.0832</v>
-      </c>
-      <c r="E6" s="11" t="n">
-        <v>2.6701</v>
+        <v>1.3874</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>3.3197</v>
       </c>
     </row>
     <row r="7">
@@ -602,13 +586,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.8283</v>
-      </c>
-      <c r="D7" s="12" t="n">
-        <v>1.0518</v>
-      </c>
-      <c r="E7" s="13" t="n">
-        <v>2.6292</v>
+        <v>-1.9761</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>1.3419</v>
+      </c>
+      <c r="E7" s="12" t="n">
+        <v>3.2641</v>
       </c>
     </row>
     <row r="8">
@@ -619,13 +603,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.8108</v>
-      </c>
-      <c r="D8" s="14" t="n">
-        <v>1.0642</v>
-      </c>
-      <c r="E8" s="15" t="n">
-        <v>2.6501</v>
+        <v>-1.8975</v>
+      </c>
+      <c r="D8" s="12" t="n">
+        <v>1.3462</v>
+      </c>
+      <c r="E8" s="13" t="n">
+        <v>3.2768</v>
       </c>
     </row>
     <row r="9">
@@ -636,13 +620,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.6709000000000001</v>
-      </c>
-      <c r="D9" s="16" t="n">
-        <v>1.0425</v>
-      </c>
-      <c r="E9" s="16" t="n">
-        <v>2.5543</v>
+        <v>-1.8189</v>
+      </c>
+      <c r="D9" s="14" t="n">
+        <v>1.3541</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>3.2277</v>
       </c>
     </row>
   </sheetData>

--- a/results/model3/model3_df_results.xlsx
+++ b/results/model3/model3_df_results.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill/>
     </fill>
@@ -49,22 +49,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BAE3B3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0075C477"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002C944C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00248C46"/>
+        <fgColor rgb="00006B2B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00005E26"/>
       </patternFill>
     </fill>
     <fill>
@@ -74,32 +64,47 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00004C1E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00005A24"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000C7735"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0005712F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00005924"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00004E1F"/>
+        <fgColor rgb="005BB86A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005DB96B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C7E9C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00005B25"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000491D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0003702E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000682A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001C8540"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00208843"/>
       </patternFill>
     </fill>
   </fills>
@@ -122,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -133,37 +138,40 @@
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -501,13 +509,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-30.0126</v>
+        <v>-9.146100000000001</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>1.5189</v>
+        <v>0.8688</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>4.685</v>
+        <v>2.659</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-11.4739</v>
+        <v>-2.7484</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.4664</v>
+        <v>0.8038999999999999</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3.4766</v>
+        <v>1.8763</v>
       </c>
     </row>
     <row r="4">
@@ -535,13 +543,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-5.6612</v>
+        <v>-1.0869</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>1.4309</v>
+        <v>0.8008999999999999</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>3.437</v>
+        <v>1.9324</v>
       </c>
     </row>
     <row r="5">
@@ -552,13 +560,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-3.0416</v>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>1.3929</v>
-      </c>
-      <c r="E5" s="9" t="n">
-        <v>3.3217</v>
+        <v>-0.3165</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>1.8901</v>
       </c>
     </row>
     <row r="6">
@@ -569,13 +577,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-2.2067</v>
-      </c>
-      <c r="D6" s="10" t="n">
-        <v>1.3874</v>
-      </c>
-      <c r="E6" s="9" t="n">
-        <v>3.3197</v>
+        <v>-0.1403</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>0.8273</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>1.9863</v>
       </c>
     </row>
     <row r="7">
@@ -586,13 +594,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-1.9761</v>
-      </c>
-      <c r="D7" s="11" t="n">
-        <v>1.3419</v>
-      </c>
-      <c r="E7" s="12" t="n">
-        <v>3.2641</v>
+        <v>-0.045</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.7952</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>1.9624</v>
       </c>
     </row>
     <row r="8">
@@ -603,13 +611,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-1.8975</v>
+        <v>-0.0951</v>
       </c>
       <c r="D8" s="12" t="n">
-        <v>1.3462</v>
+        <v>0.8276</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>3.2768</v>
+        <v>2.0507</v>
       </c>
     </row>
     <row r="9">
@@ -620,13 +628,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-1.8189</v>
+        <v>-0.111</v>
       </c>
       <c r="D9" s="14" t="n">
-        <v>1.3541</v>
-      </c>
-      <c r="E9" s="11" t="n">
-        <v>3.2277</v>
+        <v>0.8501</v>
+      </c>
+      <c r="E9" s="15" t="n">
+        <v>2.0649</v>
       </c>
     </row>
   </sheetData>

--- a/results/model3/model3_df_results.xlsx
+++ b/results/model3/model3_df_results.xlsx
@@ -44,67 +44,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00A9DCA3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000441B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00006C2C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00005522"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0065BD6F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0056B567"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B0DFAA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00F7FCF5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00006B2B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00005E26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000441B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005BB86A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005DB96B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C7E9C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00005B25"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000491D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0003702E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000682A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001C8540"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00208843"/>
+        <fgColor rgb="00006729"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0018823D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0029914A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0052B365"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007CC87C"/>
       </patternFill>
     </fill>
   </fills>
@@ -138,37 +138,37 @@
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -509,13 +509,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-9.146100000000001</v>
+        <v>-8.1332</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.8688</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>2.659</v>
+        <v>0.8243</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>2.5545</v>
       </c>
     </row>
     <row r="3">
@@ -526,13 +526,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-2.7484</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0.8038999999999999</v>
+        <v>-1.9303</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0.7108</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>1.8763</v>
+        <v>1.6586</v>
       </c>
     </row>
     <row r="4">
@@ -543,13 +543,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-1.0869</v>
+        <v>-0.7447</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.8008999999999999</v>
+        <v>0.7323</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>1.9324</v>
+        <v>1.7558</v>
       </c>
     </row>
     <row r="5">
@@ -560,13 +560,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.3165</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>0.795</v>
-      </c>
-      <c r="E5" s="8" t="n">
-        <v>1.8901</v>
+        <v>-0.0796</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>0.7199</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.6599</v>
       </c>
     </row>
     <row r="6">
@@ -577,13 +577,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.1403</v>
+        <v>-0.0438</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>0.8273</v>
+        <v>0.7916</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>1.9863</v>
+        <v>1.8479</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.045</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>0.7952</v>
-      </c>
-      <c r="E7" s="11" t="n">
-        <v>1.9624</v>
+        <v>-0.0187</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>0.7851</v>
+      </c>
+      <c r="E7" s="12" t="n">
+        <v>1.9063</v>
       </c>
     </row>
     <row r="8">
@@ -611,13 +611,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.0951</v>
-      </c>
-      <c r="D8" s="12" t="n">
-        <v>0.8276</v>
-      </c>
-      <c r="E8" s="13" t="n">
-        <v>2.0507</v>
+        <v>-0.096</v>
+      </c>
+      <c r="D8" s="13" t="n">
+        <v>0.8279</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>2.0311</v>
       </c>
     </row>
     <row r="9">
@@ -628,13 +628,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.111</v>
-      </c>
-      <c r="D9" s="14" t="n">
-        <v>0.8501</v>
+        <v>-0.2039</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.8849</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>2.0649</v>
+        <v>2.1261</v>
       </c>
     </row>
   </sheetData>

--- a/results/model3/model3_df_results.xlsx
+++ b/results/model3/model3_df_results.xlsx
@@ -29,13 +29,13 @@
       <b val="1"/>
     </font>
     <font>
+      <color rgb="00F1F1F1"/>
+    </font>
+    <font>
       <color rgb="00000000"/>
     </font>
-    <font>
-      <color rgb="00F1F1F1"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill/>
     </fill>
@@ -44,37 +44,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A9DCA3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="0000441B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00006C2C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00005522"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0065BD6F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0056B567"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B0DFAA"/>
+        <fgColor rgb="000A7633"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00238B45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0087CD86"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D5EFCF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E6F5E1"/>
       </patternFill>
     </fill>
     <fill>
@@ -84,27 +79,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00006729"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0018823D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0029914A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0052B365"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007CC87C"/>
+        <fgColor rgb="00EFF9EB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000D7836"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00006529"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0068BE70"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D2EDCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8F6E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EBF7E7"/>
       </patternFill>
     </fill>
   </fills>
@@ -127,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -138,40 +143,43 @@
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -509,13 +517,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-8.1332</v>
+        <v>-2.8566</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.8243</v>
+        <v>0.5356</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.5545</v>
+        <v>1.6822</v>
       </c>
     </row>
     <row r="3">
@@ -526,13 +534,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-1.9303</v>
+        <v>-1.1908</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.7108</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>1.6586</v>
+        <v>0.6146</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>1.4959</v>
       </c>
     </row>
     <row r="4">
@@ -543,13 +551,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.7447</v>
+        <v>-0.4115</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.7323</v>
+        <v>0.6587</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>1.7558</v>
+        <v>1.608</v>
       </c>
     </row>
     <row r="5">
@@ -560,13 +568,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.0796</v>
+        <v>-0.3611</v>
       </c>
       <c r="D5" s="8" t="n">
-        <v>0.7199</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>1.6599</v>
+        <v>0.8083</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>2.0039</v>
       </c>
     </row>
     <row r="6">
@@ -577,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.0438</v>
-      </c>
-      <c r="D6" s="9" t="n">
-        <v>0.7916</v>
-      </c>
-      <c r="E6" s="10" t="n">
-        <v>1.8479</v>
+        <v>-0.4466</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>0.9319</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>2.3532</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +602,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.0187</v>
-      </c>
-      <c r="D7" s="11" t="n">
-        <v>0.7851</v>
-      </c>
-      <c r="E7" s="12" t="n">
-        <v>1.9063</v>
+        <v>-0.5543</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <v>0.9698</v>
+      </c>
+      <c r="E7" s="13" t="n">
+        <v>2.4605</v>
       </c>
     </row>
     <row r="8">
@@ -611,13 +619,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.096</v>
-      </c>
-      <c r="D8" s="13" t="n">
-        <v>0.8279</v>
+        <v>-0.6882</v>
+      </c>
+      <c r="D8" s="14" t="n">
+        <v>1.0276</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>2.0311</v>
+        <v>2.5756</v>
       </c>
     </row>
     <row r="9">
@@ -628,13 +636,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.2039</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.8849</v>
-      </c>
-      <c r="E9" s="15" t="n">
-        <v>2.1261</v>
+        <v>-0.5314</v>
+      </c>
+      <c r="D9" s="15" t="n">
+        <v>0.9981</v>
+      </c>
+      <c r="E9" s="16" t="n">
+        <v>2.4839</v>
       </c>
     </row>
   </sheetData>

--- a/results/model3/model3_df_results.xlsx
+++ b/results/model3/model3_df_results.xlsx
@@ -29,10 +29,10 @@
       <b val="1"/>
     </font>
     <font>
-      <color rgb="00F1F1F1"/>
+      <color rgb="00000000"/>
     </font>
     <font>
-      <color rgb="00000000"/>
+      <color rgb="00F1F1F1"/>
     </font>
   </fonts>
   <fills count="16">
@@ -44,72 +44,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00F7FCF5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DFF3DA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0097D492"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003FA95C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001A843F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00004E1F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="0000441B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000A7633"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00238B45"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0087CD86"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D5EFCF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E6F5E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F7FCF5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EFF9EB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000D7836"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00006529"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0068BE70"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D2EDCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E8F6E3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EBF7E7"/>
+        <fgColor rgb="0000481D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0017813D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00026F2E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00006328"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00005C25"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00005522"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00005020"/>
       </patternFill>
     </fill>
   </fills>
@@ -143,25 +143,25 @@
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -176,10 +176,10 @@
     <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -517,13 +517,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-2.8566</v>
+        <v>-37.2496</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.5356</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>1.6822</v>
+        <v>1.6868</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>5.2049</v>
       </c>
     </row>
     <row r="3">
@@ -534,13 +534,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-1.1908</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>0.6146</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>1.4959</v>
+        <v>-14.9554</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1.6585</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>3.9489</v>
       </c>
     </row>
     <row r="4">
@@ -551,13 +551,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.4115</v>
+        <v>-7.4519</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.6587</v>
+        <v>1.6118</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>1.608</v>
+        <v>3.8308</v>
       </c>
     </row>
     <row r="5">
@@ -568,13 +568,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.3611</v>
+        <v>-4.1295</v>
       </c>
       <c r="D5" s="8" t="n">
-        <v>0.8083</v>
+        <v>1.5692</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>2.0039</v>
+        <v>3.7746</v>
       </c>
     </row>
     <row r="6">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.4466</v>
+        <v>-2.96</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>0.9319</v>
+        <v>1.5418</v>
       </c>
       <c r="E6" s="11" t="n">
-        <v>2.3532</v>
+        <v>3.7382</v>
       </c>
     </row>
     <row r="7">
@@ -602,13 +602,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.5543</v>
+        <v>-2.7525</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>0.9698</v>
+        <v>1.5068</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>2.4605</v>
+        <v>3.703</v>
       </c>
     </row>
     <row r="8">
@@ -619,13 +619,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.6882</v>
+        <v>-2.602</v>
       </c>
       <c r="D8" s="14" t="n">
-        <v>1.0276</v>
-      </c>
-      <c r="E8" s="14" t="n">
-        <v>2.5756</v>
+        <v>1.5009</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>3.6802</v>
       </c>
     </row>
     <row r="9">
@@ -636,13 +636,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.5314</v>
-      </c>
-      <c r="D9" s="15" t="n">
-        <v>0.9981</v>
-      </c>
-      <c r="E9" s="16" t="n">
-        <v>2.4839</v>
+        <v>-2.4769</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>1.5038</v>
+      </c>
+      <c r="E9" s="14" t="n">
+        <v>3.6203</v>
       </c>
     </row>
   </sheetData>

--- a/results/model3/model3_df_results.xlsx
+++ b/results/model3/model3_df_results.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="14">
     <fill>
       <patternFill/>
     </fill>
@@ -49,67 +49,57 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DFF3DA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0097D492"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003FA95C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001A843F"/>
+        <fgColor rgb="00C8E9C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007AC77B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00329B51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00248C46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000441B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00005522"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00006729"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000A7633"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00005321"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000491D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00004E1F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000441B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000481D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0017813D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00026F2E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00006328"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00005C25"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00005522"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00005020"/>
       </patternFill>
     </fill>
   </fills>
@@ -132,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -152,34 +142,28 @@
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -517,13 +501,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-37.2496</v>
+        <v>-26.9707</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>1.6868</v>
+        <v>1.4425</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>5.2049</v>
+        <v>4.4439</v>
       </c>
     </row>
     <row r="3">
@@ -534,13 +518,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-14.9554</v>
+        <v>-10.4312</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.6585</v>
+        <v>1.4038</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3.9489</v>
+        <v>3.3279</v>
       </c>
     </row>
     <row r="4">
@@ -551,13 +535,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-7.4519</v>
+        <v>-5.0811</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>1.6118</v>
+        <v>1.3672</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>3.8308</v>
+        <v>3.2538</v>
       </c>
     </row>
     <row r="5">
@@ -568,13 +552,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-4.1295</v>
+        <v>-2.7158</v>
       </c>
       <c r="D5" s="8" t="n">
-        <v>1.5692</v>
+        <v>1.3355</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>3.7746</v>
+        <v>3.1747</v>
       </c>
     </row>
     <row r="6">
@@ -585,13 +569,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-2.96</v>
+        <v>-1.9314</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>1.5418</v>
-      </c>
-      <c r="E6" s="11" t="n">
-        <v>3.7382</v>
+        <v>1.3265</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>3.1753</v>
       </c>
     </row>
     <row r="7">
@@ -602,13 +586,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-2.7525</v>
-      </c>
-      <c r="D7" s="12" t="n">
-        <v>1.5068</v>
-      </c>
-      <c r="E7" s="13" t="n">
-        <v>3.703</v>
+        <v>-1.7368</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>1.2868</v>
+      </c>
+      <c r="E7" s="12" t="n">
+        <v>3.1343</v>
       </c>
     </row>
     <row r="8">
@@ -619,13 +603,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-2.602</v>
-      </c>
-      <c r="D8" s="14" t="n">
-        <v>1.5009</v>
-      </c>
-      <c r="E8" s="15" t="n">
-        <v>3.6802</v>
+        <v>-1.6826</v>
+      </c>
+      <c r="D8" s="13" t="n">
+        <v>1.2953</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>3.1583</v>
       </c>
     </row>
     <row r="9">
@@ -636,13 +620,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-2.4769</v>
-      </c>
-      <c r="D9" s="16" t="n">
-        <v>1.5038</v>
-      </c>
-      <c r="E9" s="14" t="n">
-        <v>3.6203</v>
+        <v>-1.6123</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>1.3035</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>3.1119</v>
       </c>
     </row>
   </sheetData>

--- a/results/model3/model3_df_results.xlsx
+++ b/results/model3/model3_df_results.xlsx
@@ -29,13 +29,13 @@
       <b val="1"/>
     </font>
     <font>
+      <color rgb="00F1F1F1"/>
+    </font>
+    <font>
       <color rgb="00000000"/>
     </font>
-    <font>
-      <color rgb="00F1F1F1"/>
-    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill/>
     </fill>
@@ -44,62 +44,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00006428"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000441B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00006328"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00026F2E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0052B365"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009BD696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D7EFD1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00F7FCF5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C8E9C1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007AC77B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00329B51"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00248C46"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000441B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00005522"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00006729"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000A7633"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00005321"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000491D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00004E1F"/>
+        <fgColor rgb="000E7936"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00005622"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00268E47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCEBC6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E7F6E2"/>
       </patternFill>
     </fill>
   </fills>
@@ -122,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -133,37 +138,40 @@
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -501,13 +509,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-26.9707</v>
+        <v>0.3518</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>1.4425</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>4.4439</v>
+        <v>1.0065</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>2.1292</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-10.4312</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>1.4038</v>
+        <v>0.3758</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0.9819</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3.3279</v>
+        <v>1.9681</v>
       </c>
     </row>
     <row r="4">
@@ -535,13 +543,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-5.0811</v>
+        <v>0.3439</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>1.3672</v>
+        <v>1.0052</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>3.2538</v>
+        <v>2.0183</v>
       </c>
     </row>
     <row r="5">
@@ -552,13 +560,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-2.7158</v>
+        <v>0.3368</v>
       </c>
       <c r="D5" s="8" t="n">
-        <v>1.3355</v>
-      </c>
-      <c r="E5" s="9" t="n">
-        <v>3.1747</v>
+        <v>1.0151</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>2.0538</v>
       </c>
     </row>
     <row r="6">
@@ -569,13 +577,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-1.9314</v>
-      </c>
-      <c r="D6" s="10" t="n">
-        <v>1.3265</v>
-      </c>
-      <c r="E6" s="9" t="n">
-        <v>3.1753</v>
+        <v>0.2439</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>1.0847</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>2.2083</v>
       </c>
     </row>
     <row r="7">
@@ -586,13 +594,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-1.7368</v>
+        <v>0.1728</v>
       </c>
       <c r="D7" s="11" t="n">
-        <v>1.2868</v>
+        <v>1.1322</v>
       </c>
       <c r="E7" s="12" t="n">
-        <v>3.1343</v>
+        <v>2.6692</v>
       </c>
     </row>
     <row r="8">
@@ -603,13 +611,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-1.6826</v>
+        <v>0.1075</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>1.2953</v>
+        <v>1.1841</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>3.1583</v>
+        <v>2.7723</v>
       </c>
     </row>
     <row r="9">
@@ -620,13 +628,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-1.6123</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>1.3035</v>
-      </c>
-      <c r="E9" s="11" t="n">
-        <v>3.1119</v>
+        <v>0.0514</v>
+      </c>
+      <c r="D9" s="15" t="n">
+        <v>1.2296</v>
+      </c>
+      <c r="E9" s="15" t="n">
+        <v>2.877</v>
       </c>
     </row>
   </sheetData>

--- a/results/model3/model3_df_results.xlsx
+++ b/results/model3/model3_df_results.xlsx
@@ -29,13 +29,13 @@
       <b val="1"/>
     </font>
     <font>
+      <color rgb="00000000"/>
+    </font>
+    <font>
       <color rgb="00F1F1F1"/>
     </font>
-    <font>
-      <color rgb="00000000"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill/>
     </fill>
@@ -44,7 +44,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00006428"/>
+        <fgColor rgb="00F7FCF5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8F6E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C0E6B9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008BCF89"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0084CC83"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003DA65A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00107A37"/>
       </patternFill>
     </fill>
     <fill>
@@ -54,57 +84,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00006328"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00026F2E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0052B365"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009BD696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D7EFD1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F7FCF5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000E7936"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00005622"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00268E47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CCEBC6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E7F6E2"/>
+        <fgColor rgb="00BBE4B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0099D595"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0076C578"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0086CC85"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0038A156"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00147E3A"/>
       </patternFill>
     </fill>
   </fills>
@@ -127,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -138,12 +143,12 @@
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -153,22 +158,25 @@
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -509,13 +517,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.3518</v>
+        <v>-0.0403</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>1.0065</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>2.1292</v>
+        <v>1.999</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>3.4125</v>
       </c>
     </row>
     <row r="3">
@@ -526,13 +534,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.3758</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>0.9819</v>
+        <v>-0.029</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1.9843</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>1.9681</v>
+        <v>3.3283</v>
       </c>
     </row>
     <row r="4">
@@ -543,13 +551,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.3439</v>
+        <v>-0.006</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>1.0052</v>
+        <v>1.9609</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>2.0183</v>
+        <v>3.2985</v>
       </c>
     </row>
     <row r="5">
@@ -560,13 +568,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.3368</v>
+        <v>0.0186</v>
       </c>
       <c r="D5" s="8" t="n">
-        <v>1.0151</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>2.0538</v>
+        <v>1.9387</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>3.2697</v>
       </c>
     </row>
     <row r="6">
@@ -577,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.2439</v>
-      </c>
-      <c r="D6" s="9" t="n">
-        <v>1.0847</v>
-      </c>
-      <c r="E6" s="10" t="n">
-        <v>2.2083</v>
+        <v>0.0211</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>1.9363</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>3.2829</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +602,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.1728</v>
-      </c>
-      <c r="D7" s="11" t="n">
-        <v>1.1322</v>
-      </c>
-      <c r="E7" s="12" t="n">
-        <v>2.6692</v>
+        <v>0.011</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <v>1.9102</v>
+      </c>
+      <c r="E7" s="13" t="n">
+        <v>3.2221</v>
       </c>
     </row>
     <row r="8">
@@ -611,13 +619,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.1075</v>
-      </c>
-      <c r="D8" s="13" t="n">
-        <v>1.1841</v>
-      </c>
-      <c r="E8" s="14" t="n">
-        <v>2.7723</v>
+        <v>-0.0124</v>
+      </c>
+      <c r="D8" s="14" t="n">
+        <v>1.8858</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>3.1815</v>
       </c>
     </row>
     <row r="9">
@@ -628,13 +636,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.0514</v>
-      </c>
-      <c r="D9" s="15" t="n">
-        <v>1.2296</v>
-      </c>
-      <c r="E9" s="15" t="n">
-        <v>2.877</v>
+        <v>-0.0336</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>1.8609</v>
+      </c>
+      <c r="E9" s="16" t="n">
+        <v>3.1244</v>
       </c>
     </row>
   </sheetData>

--- a/results/model3/model3_df_results.xlsx
+++ b/results/model3/model3_df_results.xlsx
@@ -29,13 +29,13 @@
       <b val="1"/>
     </font>
     <font>
+      <color rgb="00F1F1F1"/>
+    </font>
+    <font>
       <color rgb="00000000"/>
     </font>
-    <font>
-      <color rgb="00F1F1F1"/>
-    </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill/>
     </fill>
@@ -44,72 +44,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00005221"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00006227"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000441B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0039A257"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0097D492"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C0E6B9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00F7FCF5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E8F6E3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C0E6B9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008BCF89"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0084CC83"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003DA65A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00107A37"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000441B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BBE4B4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0099D595"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0076C578"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0086CC85"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0038A156"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00147E3A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00005A24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000451C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005BB86A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A4DA9E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CDECC7"/>
       </patternFill>
     </fill>
   </fills>
@@ -132,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -143,43 +138,40 @@
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -517,13 +509,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-0.0403</v>
+        <v>0.4209</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>1.999</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>3.4125</v>
+        <v>1.4915</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>2.5741</v>
       </c>
     </row>
     <row r="3">
@@ -534,13 +526,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.029</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>1.9843</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>3.3283</v>
+        <v>0.4146</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>1.4967</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>2.5376</v>
       </c>
     </row>
     <row r="4">
@@ -551,13 +543,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.006</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>1.9609</v>
+        <v>0.4139</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.4967</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>3.2985</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="5">
@@ -568,13 +560,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.0186</v>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>1.9387</v>
-      </c>
-      <c r="E5" s="9" t="n">
-        <v>3.2697</v>
+        <v>0.4229</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>1.4867</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>2.5388</v>
       </c>
     </row>
     <row r="6">
@@ -585,13 +577,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.0211</v>
-      </c>
-      <c r="D6" s="10" t="n">
-        <v>1.9363</v>
-      </c>
-      <c r="E6" s="11" t="n">
-        <v>3.2829</v>
+        <v>0.3942</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>1.5232</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>2.6182</v>
       </c>
     </row>
     <row r="7">
@@ -602,13 +594,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="D7" s="12" t="n">
-        <v>1.9102</v>
-      </c>
-      <c r="E7" s="13" t="n">
-        <v>3.2221</v>
+        <v>0.3485</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>1.5504</v>
+      </c>
+      <c r="E7" s="12" t="n">
+        <v>2.6544</v>
       </c>
     </row>
     <row r="8">
@@ -619,13 +611,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.0124</v>
-      </c>
-      <c r="D8" s="14" t="n">
-        <v>1.8858</v>
-      </c>
-      <c r="E8" s="15" t="n">
-        <v>3.1815</v>
+        <v>0.3036</v>
+      </c>
+      <c r="D8" s="13" t="n">
+        <v>1.564</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>2.6801</v>
       </c>
     </row>
     <row r="9">
@@ -636,13 +628,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.0336</v>
-      </c>
-      <c r="D9" s="16" t="n">
-        <v>1.8609</v>
-      </c>
-      <c r="E9" s="16" t="n">
-        <v>3.1244</v>
+        <v>0.242</v>
+      </c>
+      <c r="D9" s="15" t="n">
+        <v>1.5936</v>
+      </c>
+      <c r="E9" s="15" t="n">
+        <v>2.7215</v>
       </c>
     </row>
   </sheetData>

--- a/results/model3/model3_df_results.xlsx
+++ b/results/model3/model3_df_results.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00000000"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill/>
     </fill>
@@ -44,32 +44,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00005221"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00006227"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="0000441B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0039A257"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0097D492"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C0E6B9"/>
+        <fgColor rgb="00006C2C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0018823D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001E8741"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0073C476"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B2E0AC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DBF1D5"/>
       </patternFill>
     </fill>
     <fill>
@@ -79,32 +84,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00147E3A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00005A24"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000451C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005BB86A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A4DA9E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CDECC7"/>
+        <fgColor rgb="00005723"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0005712F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00127C39"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0086CC85"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BCE4B5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E2F4DD"/>
       </patternFill>
     </fill>
   </fills>
@@ -127,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -138,7 +143,7 @@
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -147,16 +152,13 @@
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -172,6 +174,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -509,13 +517,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.4209</v>
+        <v>0.4009</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>1.4915</v>
+        <v>1.517</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.5741</v>
+        <v>2.6725</v>
       </c>
     </row>
     <row r="3">
@@ -526,13 +534,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.4146</v>
+        <v>0.3839</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>1.4967</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>2.5376</v>
+        <v>1.5353</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>2.6583</v>
       </c>
     </row>
     <row r="4">
@@ -543,13 +551,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>1.4967</v>
+        <v>0.3728</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>1.5483</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>2.55</v>
+        <v>2.6926</v>
       </c>
     </row>
     <row r="5">
@@ -560,13 +568,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.4229</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>1.4867</v>
-      </c>
-      <c r="E5" s="8" t="n">
-        <v>2.5388</v>
+        <v>0.372</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>1.5508</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>2.7041</v>
       </c>
     </row>
     <row r="6">
@@ -577,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.3942</v>
-      </c>
-      <c r="D6" s="9" t="n">
-        <v>1.5232</v>
-      </c>
-      <c r="E6" s="10" t="n">
-        <v>2.6182</v>
+        <v>0.3401</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>1.5898</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>2.7906</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +602,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.3485</v>
-      </c>
-      <c r="D7" s="11" t="n">
-        <v>1.5504</v>
-      </c>
-      <c r="E7" s="12" t="n">
-        <v>2.6544</v>
+        <v>0.2912</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <v>1.6171</v>
+      </c>
+      <c r="E7" s="13" t="n">
+        <v>2.8301</v>
       </c>
     </row>
     <row r="8">
@@ -611,13 +619,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.3036</v>
-      </c>
-      <c r="D8" s="13" t="n">
-        <v>1.564</v>
-      </c>
-      <c r="E8" s="14" t="n">
-        <v>2.6801</v>
+        <v>0.2357</v>
+      </c>
+      <c r="D8" s="14" t="n">
+        <v>1.6386</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>2.8657</v>
       </c>
     </row>
     <row r="9">
@@ -628,13 +636,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.242</v>
-      </c>
-      <c r="D9" s="15" t="n">
-        <v>1.5936</v>
-      </c>
-      <c r="E9" s="15" t="n">
-        <v>2.7215</v>
+        <v>0.174</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>1.6636</v>
+      </c>
+      <c r="E9" s="16" t="n">
+        <v>2.8991</v>
       </c>
     </row>
   </sheetData>

--- a/results/model3/model3_df_results.xlsx
+++ b/results/model3/model3_df_results.xlsx
@@ -29,10 +29,10 @@
       <b val="1"/>
     </font>
     <font>
-      <color rgb="00F1F1F1"/>
+      <color rgb="00000000"/>
     </font>
     <font>
-      <color rgb="00000000"/>
+      <color rgb="00F1F1F1"/>
     </font>
   </fonts>
   <fills count="16">
@@ -44,72 +44,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00F7FCF5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C7E9C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0079C67A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0038A156"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003AA357"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001A843F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00006729"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="0000441B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00006C2C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0018823D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001E8741"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0073C476"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B2E0AC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DBF1D5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F7FCF5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00005723"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0005712F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00127C39"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0086CC85"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BCE4B5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E2F4DD"/>
+        <fgColor rgb="0098D594"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005EB96B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00369F54"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003FA85B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0019833E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00016E2D"/>
       </patternFill>
     </fill>
   </fills>
@@ -143,31 +143,31 @@
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -517,13 +517,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.4009</v>
+        <v>-0.064</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>1.517</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>2.6725</v>
+        <v>2.0217</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>3.4739</v>
       </c>
     </row>
     <row r="3">
@@ -534,13 +534,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.3839</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>1.5353</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>2.6583</v>
+        <v>-0.0323</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1.9875</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>3.3535</v>
       </c>
     </row>
     <row r="4">
@@ -551,13 +551,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.3728</v>
+        <v>-0.0003</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>1.5483</v>
+        <v>1.9553</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>2.6926</v>
+        <v>3.3083</v>
       </c>
     </row>
     <row r="5">
@@ -568,13 +568,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.372</v>
+        <v>0.0263</v>
       </c>
       <c r="D5" s="8" t="n">
-        <v>1.5508</v>
+        <v>1.931</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>2.7041</v>
+        <v>3.2733</v>
       </c>
     </row>
     <row r="6">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.3401</v>
+        <v>0.0249</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>1.5898</v>
+        <v>1.9325</v>
       </c>
       <c r="E6" s="11" t="n">
-        <v>2.7906</v>
+        <v>3.2838</v>
       </c>
     </row>
     <row r="7">
@@ -602,13 +602,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.2912</v>
+        <v>0.0058</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>1.6171</v>
+        <v>1.9152</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>2.8301</v>
+        <v>3.2386</v>
       </c>
     </row>
     <row r="8">
@@ -619,13 +619,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.2357</v>
+        <v>-0.0271</v>
       </c>
       <c r="D8" s="14" t="n">
-        <v>1.6386</v>
+        <v>1.8995</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>2.8657</v>
+        <v>3.2127</v>
       </c>
     </row>
     <row r="9">
@@ -636,13 +636,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.174</v>
+        <v>-0.0605</v>
       </c>
       <c r="D9" s="16" t="n">
-        <v>1.6636</v>
+        <v>1.885</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>2.8991</v>
+        <v>3.1736</v>
       </c>
     </row>
   </sheetData>
